--- a/example-dataset/results/IDFree_IDBased_GroupComparison_QCResult/ExampleDataset-IDFree-IDBased-Group_QC_Status_Report.xlsx
+++ b/example-dataset/results/IDFree_IDBased_GroupComparison_QCResult/ExampleDataset-IDFree-IDBased-Group_QC_Status_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="81">
   <si>
     <t>Filename</t>
   </si>
@@ -248,13 +248,16 @@
     <t>QC Fail Score</t>
   </si>
   <si>
-    <t>4 out of 11 metrics</t>
+    <t>3 out of 11 metrics</t>
+  </si>
+  <si>
+    <t>0 out of 11 metrics</t>
   </si>
   <si>
     <t>1 out of 11 metrics</t>
   </si>
   <si>
-    <t>3 out of 11 metrics</t>
+    <t>2 out of 11 metrics</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
         <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -711,7 +714,7 @@
         <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -743,7 +746,7 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -775,7 +778,7 @@
         <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -807,7 +810,7 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -839,7 +842,7 @@
         <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -871,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -903,7 +906,7 @@
         <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -935,7 +938,7 @@
         <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -967,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -999,7 +1002,7 @@
         <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1031,7 +1034,7 @@
         <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1095,7 +1098,7 @@
         <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1127,7 +1130,7 @@
         <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1159,7 +1162,7 @@
         <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1191,7 +1194,7 @@
         <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1223,7 +1226,7 @@
         <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1255,7 +1258,7 @@
         <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1287,7 +1290,7 @@
         <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1319,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1351,7 +1354,7 @@
         <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1383,7 +1386,7 @@
         <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1415,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1447,7 +1450,7 @@
         <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1479,7 +1482,7 @@
         <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1511,7 +1514,7 @@
         <v>65</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1543,7 +1546,7 @@
         <v>65</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1575,7 +1578,7 @@
         <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1607,7 +1610,7 @@
         <v>65</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1639,7 +1642,7 @@
         <v>65</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1671,7 +1674,7 @@
         <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1703,7 +1706,7 @@
         <v>65</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1735,7 +1738,7 @@
         <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1767,7 +1770,7 @@
         <v>65</v>
       </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1799,7 +1802,7 @@
         <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1831,7 +1834,7 @@
         <v>65</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1863,7 +1866,7 @@
         <v>65</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1895,7 +1898,7 @@
         <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1927,7 +1930,7 @@
         <v>65</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1959,7 +1962,7 @@
         <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1991,7 +1994,7 @@
         <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2023,7 +2026,7 @@
         <v>65</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2055,7 +2058,7 @@
         <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2087,7 +2090,7 @@
         <v>65</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2119,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2151,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="J48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2249,7 @@
         <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
         <v>66</v>
@@ -2290,10 +2293,10 @@
         <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>78</v>
@@ -2340,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2378,10 +2381,10 @@
         <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
         <v>78</v>
@@ -2422,10 +2425,10 @@
         <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
         <v>78</v>
@@ -2466,13 +2469,13 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2510,10 +2513,10 @@
         <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
         <v>78</v>
@@ -2554,13 +2557,13 @@
         <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
         <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
